--- a/SUSY/SUSY QM/PennyLane/COBYQA/PauliDecomp/AnsatzComp/DW/DW32/table.xlsx
+++ b/SUSY/SUSY QM/PennyLane/COBYQA/PauliDecomp/AnsatzComp/DW/DW32/table.xlsx
@@ -493,7 +493,7 @@
         <v>163</v>
       </c>
       <c r="E2" t="n">
-        <v>5.15183</v>
+        <v>0.0619566</v>
       </c>
       <c r="F2" t="n">
         <v>2.40237</v>
@@ -527,7 +527,7 @@
         <v>124</v>
       </c>
       <c r="E3" t="n">
-        <v>6.49666</v>
+        <v>0.0107125</v>
       </c>
       <c r="F3" t="n">
         <v>1.6054</v>
@@ -561,7 +561,7 @@
         <v>138</v>
       </c>
       <c r="E4" t="n">
-        <v>10.623</v>
+        <v>0.0584974</v>
       </c>
       <c r="F4" t="n">
         <v>1.39276</v>
@@ -595,7 +595,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>7.83953</v>
+        <v>0.164427</v>
       </c>
       <c r="F5" t="n">
         <v>1.38762</v>
@@ -629,7 +629,7 @@
         <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>7.86402</v>
+        <v>0.10158</v>
       </c>
       <c r="F6" t="n">
         <v>0.509699</v>
@@ -663,7 +663,7 @@
         <v>113</v>
       </c>
       <c r="E7" t="n">
-        <v>8.828010000000001</v>
+        <v>0.00617516</v>
       </c>
       <c r="F7" t="n">
         <v>0.293858</v>
@@ -697,7 +697,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>11.0334</v>
+        <v>0.223294</v>
       </c>
       <c r="F8" t="n">
         <v>0.234497</v>
@@ -731,7 +731,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>9.76666</v>
+        <v>0.00731618</v>
       </c>
       <c r="F9" t="n">
         <v>0.144791</v>
@@ -765,7 +765,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="n">
-        <v>7.87674</v>
+        <v>0.06347319999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.0738341</v>
